--- a/testing[freq-monthly[sum_or_mean-sum[standard_outputs-True[CSVconcatenated.xlsx
+++ b/testing[freq-monthly[sum_or_mean-sum[standard_outputs-True[CSVconcatenated.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="160">
   <si>
     <t>Date/Time</t>
   </si>
@@ -344,6 +344,36 @@
   </si>
   <si>
     <t>BLOCK1:ZONE4 VRF INDOOR UNIT DX HEATING COIL:Heating Coil Heating Rate [W](Hourly)</t>
+  </si>
+  <si>
+    <t>VRF OUTDOOR UNIT_BLOCK1:ZONE1:VRF Heat Pump Cooling Electricity Energy [J](Hourly)</t>
+  </si>
+  <si>
+    <t>VRF OUTDOOR UNIT_BLOCK1:ZONE1:VRF Heat Pump Heating Electricity Energy [J](Hourly)</t>
+  </si>
+  <si>
+    <t>VRF OUTDOOR UNIT_BLOCK1:ZONE3:VRF Heat Pump Cooling Electricity Energy [J](Hourly)</t>
+  </si>
+  <si>
+    <t>VRF OUTDOOR UNIT_BLOCK1:ZONE3:VRF Heat Pump Heating Electricity Energy [J](Hourly)</t>
+  </si>
+  <si>
+    <t>VRF OUTDOOR UNIT_BLOCK1:ZONE5:VRF Heat Pump Cooling Electricity Energy [J](Hourly)</t>
+  </si>
+  <si>
+    <t>VRF OUTDOOR UNIT_BLOCK1:ZONE5:VRF Heat Pump Heating Electricity Energy [J](Hourly)</t>
+  </si>
+  <si>
+    <t>VRF OUTDOOR UNIT_BLOCK1:ZONE2:VRF Heat Pump Cooling Electricity Energy [J](Hourly)</t>
+  </si>
+  <si>
+    <t>VRF OUTDOOR UNIT_BLOCK1:ZONE2:VRF Heat Pump Heating Electricity Energy [J](Hourly)</t>
+  </si>
+  <si>
+    <t>VRF OUTDOOR UNIT_BLOCK1:ZONE4:VRF Heat Pump Cooling Electricity Energy [J](Hourly)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VRF OUTDOOR UNIT_BLOCK1:ZONE4:VRF Heat Pump Heating Electricity Energy [J](Hourly) </t>
   </si>
   <si>
     <t xml:space="preserve"> 01/01  01:00:00</t>
@@ -821,13 +851,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DG26"/>
+  <dimension ref="A1:DQ26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:111">
+    <row r="1" spans="1:121">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1158,34 +1188,64 @@
       <c r="DG1" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="DH1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="2" spans="1:111">
+    <row r="2" spans="1:121">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I2" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="J2">
         <v>744</v>
@@ -1493,34 +1553,64 @@
       <c r="DG2">
         <v>133812.5053431401</v>
       </c>
+      <c r="DH2">
+        <v>0</v>
+      </c>
+      <c r="DI2">
+        <v>1519911526.397087</v>
+      </c>
+      <c r="DJ2">
+        <v>0</v>
+      </c>
+      <c r="DK2">
+        <v>2376327950.245614</v>
+      </c>
+      <c r="DL2">
+        <v>0</v>
+      </c>
+      <c r="DM2">
+        <v>45292350382.71276</v>
+      </c>
+      <c r="DN2">
+        <v>0</v>
+      </c>
+      <c r="DO2">
+        <v>664623734.4578956</v>
+      </c>
+      <c r="DP2">
+        <v>0</v>
+      </c>
+      <c r="DQ2">
+        <v>499827509.8763287</v>
+      </c>
     </row>
-    <row r="3" spans="1:111">
+    <row r="3" spans="1:121">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G3" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H3" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I3" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="J3">
         <v>672</v>
@@ -1828,34 +1918,64 @@
       <c r="DG3">
         <v>113342.5142082145</v>
       </c>
+      <c r="DH3">
+        <v>0</v>
+      </c>
+      <c r="DI3">
+        <v>1216845175.243263</v>
+      </c>
+      <c r="DJ3">
+        <v>0</v>
+      </c>
+      <c r="DK3">
+        <v>2003564907.282992</v>
+      </c>
+      <c r="DL3">
+        <v>0</v>
+      </c>
+      <c r="DM3">
+        <v>38709217952.14458</v>
+      </c>
+      <c r="DN3">
+        <v>0</v>
+      </c>
+      <c r="DO3">
+        <v>518220997.5553451</v>
+      </c>
+      <c r="DP3">
+        <v>0</v>
+      </c>
+      <c r="DQ3">
+        <v>419947871.1297131</v>
+      </c>
     </row>
-    <row r="4" spans="1:111">
+    <row r="4" spans="1:121">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F4" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G4" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H4" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I4" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="J4">
         <v>744</v>
@@ -2163,34 +2283,64 @@
       <c r="DG4">
         <v>77614.31447329253</v>
       </c>
+      <c r="DH4">
+        <v>0</v>
+      </c>
+      <c r="DI4">
+        <v>571347019.7473145</v>
+      </c>
+      <c r="DJ4">
+        <v>0</v>
+      </c>
+      <c r="DK4">
+        <v>1220434951.778203</v>
+      </c>
+      <c r="DL4">
+        <v>0</v>
+      </c>
+      <c r="DM4">
+        <v>24910289306.01119</v>
+      </c>
+      <c r="DN4">
+        <v>0</v>
+      </c>
+      <c r="DO4">
+        <v>341395166.9092616</v>
+      </c>
+      <c r="DP4">
+        <v>0</v>
+      </c>
+      <c r="DQ4">
+        <v>261880287.7197184</v>
+      </c>
     </row>
-    <row r="5" spans="1:111">
+    <row r="5" spans="1:121">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F5" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G5" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H5" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I5" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="J5">
         <v>720</v>
@@ -2498,34 +2648,64 @@
       <c r="DG5">
         <v>30738.5756234992</v>
       </c>
+      <c r="DH5">
+        <v>0</v>
+      </c>
+      <c r="DI5">
+        <v>122572349.1518116</v>
+      </c>
+      <c r="DJ5">
+        <v>0</v>
+      </c>
+      <c r="DK5">
+        <v>429542214.2716147</v>
+      </c>
+      <c r="DL5">
+        <v>4113047.419909347</v>
+      </c>
+      <c r="DM5">
+        <v>9952098972.725176</v>
+      </c>
+      <c r="DN5">
+        <v>0</v>
+      </c>
+      <c r="DO5">
+        <v>141030605.0926485</v>
+      </c>
+      <c r="DP5">
+        <v>0</v>
+      </c>
+      <c r="DQ5">
+        <v>95232409.75267434</v>
+      </c>
     </row>
-    <row r="6" spans="1:111">
+    <row r="6" spans="1:121">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E6" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="F6" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G6" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H6" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I6" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="J6">
         <v>744</v>
@@ -2833,34 +3013,64 @@
       <c r="DG6">
         <v>15275.37778075945</v>
       </c>
+      <c r="DH6">
+        <v>1395717.308903132</v>
+      </c>
+      <c r="DI6">
+        <v>39490013.48230447</v>
+      </c>
+      <c r="DJ6">
+        <v>998228.8017612533</v>
+      </c>
+      <c r="DK6">
+        <v>122087478.6183501</v>
+      </c>
+      <c r="DL6">
+        <v>218390008.7463016</v>
+      </c>
+      <c r="DM6">
+        <v>3681659871.493251</v>
+      </c>
+      <c r="DN6">
+        <v>178434.3439559752</v>
+      </c>
+      <c r="DO6">
+        <v>56873131.86406782</v>
+      </c>
+      <c r="DP6">
+        <v>0</v>
+      </c>
+      <c r="DQ6">
+        <v>36747432.34883636</v>
+      </c>
     </row>
-    <row r="7" spans="1:111">
+    <row r="7" spans="1:121">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F7" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G7" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H7" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I7" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="J7">
         <v>720</v>
@@ -3168,34 +3378,64 @@
       <c r="DG7">
         <v>1085.558135226871</v>
       </c>
+      <c r="DH7">
+        <v>117302338.0395313</v>
+      </c>
+      <c r="DI7">
+        <v>0</v>
+      </c>
+      <c r="DJ7">
+        <v>64794300.81647358</v>
+      </c>
+      <c r="DK7">
+        <v>6428640.186758518</v>
+      </c>
+      <c r="DL7">
+        <v>1322113987.729193</v>
+      </c>
+      <c r="DM7">
+        <v>383529779.7975381</v>
+      </c>
+      <c r="DN7">
+        <v>97037603.30837211</v>
+      </c>
+      <c r="DO7">
+        <v>0</v>
+      </c>
+      <c r="DP7">
+        <v>7439244.235050428</v>
+      </c>
+      <c r="DQ7">
+        <v>2322993.122240459</v>
+      </c>
     </row>
-    <row r="8" spans="1:111">
+    <row r="8" spans="1:121">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C8" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="F8" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G8" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H8" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I8" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="J8">
         <v>744</v>
@@ -3503,34 +3743,64 @@
       <c r="DG8">
         <v>0</v>
       </c>
+      <c r="DH8">
+        <v>483182171.1738029</v>
+      </c>
+      <c r="DI8">
+        <v>0</v>
+      </c>
+      <c r="DJ8">
+        <v>246810771.9446593</v>
+      </c>
+      <c r="DK8">
+        <v>0</v>
+      </c>
+      <c r="DL8">
+        <v>4110000155.003771</v>
+      </c>
+      <c r="DM8">
+        <v>0</v>
+      </c>
+      <c r="DN8">
+        <v>418677170.1017718</v>
+      </c>
+      <c r="DO8">
+        <v>0</v>
+      </c>
+      <c r="DP8">
+        <v>47194100.52629194</v>
+      </c>
+      <c r="DQ8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:111">
+    <row r="9" spans="1:121">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E9" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="F9" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G9" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H9" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I9" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="J9">
         <v>744</v>
@@ -3838,34 +4108,64 @@
       <c r="DG9">
         <v>0</v>
       </c>
+      <c r="DH9">
+        <v>446971631.3661571</v>
+      </c>
+      <c r="DI9">
+        <v>0</v>
+      </c>
+      <c r="DJ9">
+        <v>221539817.0347006</v>
+      </c>
+      <c r="DK9">
+        <v>0</v>
+      </c>
+      <c r="DL9">
+        <v>4353255611.987314</v>
+      </c>
+      <c r="DM9">
+        <v>0</v>
+      </c>
+      <c r="DN9">
+        <v>456308389.4294339</v>
+      </c>
+      <c r="DO9">
+        <v>0</v>
+      </c>
+      <c r="DP9">
+        <v>46822414.25525847</v>
+      </c>
+      <c r="DQ9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:111">
+    <row r="10" spans="1:121">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D10" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F10" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G10" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H10" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I10" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="J10">
         <v>720</v>
@@ -4173,34 +4473,64 @@
       <c r="DG10">
         <v>1449.701262342118</v>
       </c>
+      <c r="DH10">
+        <v>57905091.92856813</v>
+      </c>
+      <c r="DI10">
+        <v>0</v>
+      </c>
+      <c r="DJ10">
+        <v>24367816.94269504</v>
+      </c>
+      <c r="DK10">
+        <v>14670859.49912515</v>
+      </c>
+      <c r="DL10">
+        <v>947132235.2193069</v>
+      </c>
+      <c r="DM10">
+        <v>419705570.431866</v>
+      </c>
+      <c r="DN10">
+        <v>102685984.6818791</v>
+      </c>
+      <c r="DO10">
+        <v>17170.67638222696</v>
+      </c>
+      <c r="DP10">
+        <v>4358509.237565861</v>
+      </c>
+      <c r="DQ10">
+        <v>2847903.334679432</v>
+      </c>
     </row>
-    <row r="11" spans="1:111">
+    <row r="11" spans="1:121">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G11" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H11" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I11" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="J11">
         <v>744</v>
@@ -4508,34 +4838,64 @@
       <c r="DG11">
         <v>12902.27702446707</v>
       </c>
+      <c r="DH11">
+        <v>3565434.079146497</v>
+      </c>
+      <c r="DI11">
+        <v>27678836.75805422</v>
+      </c>
+      <c r="DJ11">
+        <v>0</v>
+      </c>
+      <c r="DK11">
+        <v>190587381.8456297</v>
+      </c>
+      <c r="DL11">
+        <v>61400082.21062849</v>
+      </c>
+      <c r="DM11">
+        <v>3148365377.529696</v>
+      </c>
+      <c r="DN11">
+        <v>18442407.44667796</v>
+      </c>
+      <c r="DO11">
+        <v>36628587.19121744</v>
+      </c>
+      <c r="DP11">
+        <v>0</v>
+      </c>
+      <c r="DQ11">
+        <v>36557206.18138631</v>
+      </c>
     </row>
-    <row r="12" spans="1:111">
+    <row r="12" spans="1:121">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F12" t="s">
         <v>147</v>
       </c>
-      <c r="F12" t="s">
-        <v>137</v>
-      </c>
       <c r="G12" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H12" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I12" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="J12">
         <v>720</v>
@@ -4843,34 +5203,64 @@
       <c r="DG12">
         <v>63867.25484218564</v>
       </c>
+      <c r="DH12">
+        <v>0</v>
+      </c>
+      <c r="DI12">
+        <v>427738373.1228018</v>
+      </c>
+      <c r="DJ12">
+        <v>0</v>
+      </c>
+      <c r="DK12">
+        <v>954515338.5843536</v>
+      </c>
+      <c r="DL12">
+        <v>0</v>
+      </c>
+      <c r="DM12">
+        <v>15723607062.56124</v>
+      </c>
+      <c r="DN12">
+        <v>0</v>
+      </c>
+      <c r="DO12">
+        <v>283881284.44331</v>
+      </c>
+      <c r="DP12">
+        <v>0</v>
+      </c>
+      <c r="DQ12">
+        <v>199458455.3605432</v>
+      </c>
     </row>
-    <row r="13" spans="1:111">
+    <row r="13" spans="1:121">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D13" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E13" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G13" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H13" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I13" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="J13">
         <v>744</v>
@@ -5178,16 +5568,46 @@
       <c r="DG13">
         <v>113888.9650476061</v>
       </c>
+      <c r="DH13">
+        <v>0</v>
+      </c>
+      <c r="DI13">
+        <v>1139405720.162091</v>
+      </c>
+      <c r="DJ13">
+        <v>0</v>
+      </c>
+      <c r="DK13">
+        <v>1928505457.247366</v>
+      </c>
+      <c r="DL13">
+        <v>0</v>
+      </c>
+      <c r="DM13">
+        <v>34751975330.41826</v>
+      </c>
+      <c r="DN13">
+        <v>0</v>
+      </c>
+      <c r="DO13">
+        <v>578622995.0725144</v>
+      </c>
+      <c r="DP13">
+        <v>0</v>
+      </c>
+      <c r="DQ13">
+        <v>398741686.2452646</v>
+      </c>
     </row>
-    <row r="14" spans="1:111">
+    <row r="14" spans="1:121">
       <c r="A14" s="1">
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -5495,34 +5915,64 @@
       <c r="DG14">
         <v>174.9665647570459</v>
       </c>
+      <c r="DH14">
+        <v>0</v>
+      </c>
+      <c r="DI14">
+        <v>1842975.455922316</v>
+      </c>
+      <c r="DJ14">
+        <v>0</v>
+      </c>
+      <c r="DK14">
+        <v>2738103.48936883</v>
+      </c>
+      <c r="DL14">
+        <v>0</v>
+      </c>
+      <c r="DM14">
+        <v>52715404.18740796</v>
+      </c>
+      <c r="DN14">
+        <v>0</v>
+      </c>
+      <c r="DO14">
+        <v>1400777.047893242</v>
+      </c>
+      <c r="DP14">
+        <v>0</v>
+      </c>
+      <c r="DQ14">
+        <v>597609.5931210776</v>
+      </c>
     </row>
-    <row r="15" spans="1:111">
+    <row r="15" spans="1:121">
       <c r="A15" s="1">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E15" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="F15" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H15" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I15" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="J15">
         <v>744</v>
@@ -5830,34 +6280,64 @@
       <c r="DG15">
         <v>121551.0504398203</v>
       </c>
+      <c r="DH15">
+        <v>0</v>
+      </c>
+      <c r="DI15">
+        <v>1285676084.662784</v>
+      </c>
+      <c r="DJ15">
+        <v>0</v>
+      </c>
+      <c r="DK15">
+        <v>2114790258.681933</v>
+      </c>
+      <c r="DL15">
+        <v>0</v>
+      </c>
+      <c r="DM15">
+        <v>39610986736.94153</v>
+      </c>
+      <c r="DN15">
+        <v>0</v>
+      </c>
+      <c r="DO15">
+        <v>609370046.1175101</v>
+      </c>
+      <c r="DP15">
+        <v>0</v>
+      </c>
+      <c r="DQ15">
+        <v>440399142.8471739</v>
+      </c>
     </row>
-    <row r="16" spans="1:111">
+    <row r="16" spans="1:121">
       <c r="A16" s="1">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E16" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G16" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H16" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="J16">
         <v>672</v>
@@ -6165,34 +6645,64 @@
       <c r="DG16">
         <v>98747.27811535432</v>
       </c>
+      <c r="DH16">
+        <v>0</v>
+      </c>
+      <c r="DI16">
+        <v>940200008.8130801</v>
+      </c>
+      <c r="DJ16">
+        <v>0</v>
+      </c>
+      <c r="DK16">
+        <v>1639508319.974275</v>
+      </c>
+      <c r="DL16">
+        <v>0</v>
+      </c>
+      <c r="DM16">
+        <v>31840593146.81101</v>
+      </c>
+      <c r="DN16">
+        <v>0</v>
+      </c>
+      <c r="DO16">
+        <v>422659846.6846635</v>
+      </c>
+      <c r="DP16">
+        <v>0</v>
+      </c>
+      <c r="DQ16">
+        <v>351247032.5214463</v>
+      </c>
     </row>
-    <row r="17" spans="1:111">
+    <row r="17" spans="1:121">
       <c r="A17" s="1">
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C17" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E17" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F17" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G17" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H17" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I17" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="J17">
         <v>744</v>
@@ -6500,34 +7010,64 @@
       <c r="DG17">
         <v>68710.70370844788</v>
       </c>
+      <c r="DH17">
+        <v>0</v>
+      </c>
+      <c r="DI17">
+        <v>433946910.9845926</v>
+      </c>
+      <c r="DJ17">
+        <v>0</v>
+      </c>
+      <c r="DK17">
+        <v>1026047520.030356</v>
+      </c>
+      <c r="DL17">
+        <v>0</v>
+      </c>
+      <c r="DM17">
+        <v>20278642511.33883</v>
+      </c>
+      <c r="DN17">
+        <v>0</v>
+      </c>
+      <c r="DO17">
+        <v>286782378.9664978</v>
+      </c>
+      <c r="DP17">
+        <v>0</v>
+      </c>
+      <c r="DQ17">
+        <v>224282404.1671765</v>
+      </c>
     </row>
-    <row r="18" spans="1:111">
+    <row r="18" spans="1:121">
       <c r="A18" s="1">
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C18" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D18" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E18" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F18" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G18" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H18" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I18" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="J18">
         <v>720</v>
@@ -6835,34 +7375,64 @@
       <c r="DG18">
         <v>23237.16512880578</v>
       </c>
+      <c r="DH18">
+        <v>0</v>
+      </c>
+      <c r="DI18">
+        <v>73146435.22136095</v>
+      </c>
+      <c r="DJ18">
+        <v>0</v>
+      </c>
+      <c r="DK18">
+        <v>318829519.7608668</v>
+      </c>
+      <c r="DL18">
+        <v>16304929.80799834</v>
+      </c>
+      <c r="DM18">
+        <v>6952624121.492507</v>
+      </c>
+      <c r="DN18">
+        <v>0</v>
+      </c>
+      <c r="DO18">
+        <v>66694737.70133786</v>
+      </c>
+      <c r="DP18">
+        <v>0</v>
+      </c>
+      <c r="DQ18">
+        <v>70144724.84718652</v>
+      </c>
     </row>
-    <row r="19" spans="1:111">
+    <row r="19" spans="1:121">
       <c r="A19" s="1">
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="E19" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="F19" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G19" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H19" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I19" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="J19">
         <v>744</v>
@@ -7170,34 +7740,64 @@
       <c r="DG19">
         <v>9923.980925621063</v>
       </c>
+      <c r="DH19">
+        <v>13714794.54772917</v>
+      </c>
+      <c r="DI19">
+        <v>26617321.14240666</v>
+      </c>
+      <c r="DJ19">
+        <v>6438667.852818262</v>
+      </c>
+      <c r="DK19">
+        <v>74838899.09999834</v>
+      </c>
+      <c r="DL19">
+        <v>331192595.1872612</v>
+      </c>
+      <c r="DM19">
+        <v>2242988414.565482</v>
+      </c>
+      <c r="DN19">
+        <v>12498536.30701562</v>
+      </c>
+      <c r="DO19">
+        <v>35240951.13730729</v>
+      </c>
+      <c r="DP19">
+        <v>1149919.851535928</v>
+      </c>
+      <c r="DQ19">
+        <v>21453184.84002903</v>
+      </c>
     </row>
-    <row r="20" spans="1:111">
+    <row r="20" spans="1:121">
       <c r="A20" s="1">
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C20" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E20" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F20" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G20" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H20" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I20" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="J20">
         <v>720</v>
@@ -7505,34 +8105,64 @@
       <c r="DG20">
         <v>165.100888512322</v>
       </c>
+      <c r="DH20">
+        <v>236231539.2194736</v>
+      </c>
+      <c r="DI20">
+        <v>0</v>
+      </c>
+      <c r="DJ20">
+        <v>115958619.9737422</v>
+      </c>
+      <c r="DK20">
+        <v>847511.8730427042</v>
+      </c>
+      <c r="DL20">
+        <v>2235343589.894619</v>
+      </c>
+      <c r="DM20">
+        <v>171352267.5909554</v>
+      </c>
+      <c r="DN20">
+        <v>198361140.2055244</v>
+      </c>
+      <c r="DO20">
+        <v>0</v>
+      </c>
+      <c r="DP20">
+        <v>19413856.45123354</v>
+      </c>
+      <c r="DQ20">
+        <v>336219.0594282766</v>
+      </c>
     </row>
-    <row r="21" spans="1:111">
+    <row r="21" spans="1:121">
       <c r="A21" s="1">
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C21" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="E21" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="F21" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G21" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H21" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I21" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="J21">
         <v>744</v>
@@ -7840,34 +8470,64 @@
       <c r="DG21">
         <v>0</v>
       </c>
+      <c r="DH21">
+        <v>568608632.9082848</v>
+      </c>
+      <c r="DI21">
+        <v>0</v>
+      </c>
+      <c r="DJ21">
+        <v>304576254.2435685</v>
+      </c>
+      <c r="DK21">
+        <v>0</v>
+      </c>
+      <c r="DL21">
+        <v>4891085091.743666</v>
+      </c>
+      <c r="DM21">
+        <v>0</v>
+      </c>
+      <c r="DN21">
+        <v>492123995.2267976</v>
+      </c>
+      <c r="DO21">
+        <v>0</v>
+      </c>
+      <c r="DP21">
+        <v>59931958.93756125</v>
+      </c>
+      <c r="DQ21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:111">
+    <row r="22" spans="1:121">
       <c r="A22" s="1">
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E22" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="F22" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G22" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H22" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I22" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="J22">
         <v>744</v>
@@ -8175,34 +8835,64 @@
       <c r="DG22">
         <v>0</v>
       </c>
+      <c r="DH22">
+        <v>540045353.6532791</v>
+      </c>
+      <c r="DI22">
+        <v>0</v>
+      </c>
+      <c r="DJ22">
+        <v>285833545.2767838</v>
+      </c>
+      <c r="DK22">
+        <v>0</v>
+      </c>
+      <c r="DL22">
+        <v>5421252617.953454</v>
+      </c>
+      <c r="DM22">
+        <v>0</v>
+      </c>
+      <c r="DN22">
+        <v>521905413.5768366</v>
+      </c>
+      <c r="DO22">
+        <v>0</v>
+      </c>
+      <c r="DP22">
+        <v>60853845.16877039</v>
+      </c>
+      <c r="DQ22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:111">
+    <row r="23" spans="1:121">
       <c r="A23" s="1">
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C23" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D23" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="E23" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="F23" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G23" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H23" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I23" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="J23">
         <v>720</v>
@@ -8510,34 +9200,64 @@
       <c r="DG23">
         <v>1608.385713867592</v>
       </c>
+      <c r="DH23">
+        <v>72008246.39538369</v>
+      </c>
+      <c r="DI23">
+        <v>347901.8877193438</v>
+      </c>
+      <c r="DJ23">
+        <v>39606774.64595734</v>
+      </c>
+      <c r="DK23">
+        <v>16503608.75779404</v>
+      </c>
+      <c r="DL23">
+        <v>1759850712.635979</v>
+      </c>
+      <c r="DM23">
+        <v>256016550.5171231</v>
+      </c>
+      <c r="DN23">
+        <v>204207462.2429579</v>
+      </c>
+      <c r="DO23">
+        <v>1344710.173683876</v>
+      </c>
+      <c r="DP23">
+        <v>6965878.100950186</v>
+      </c>
+      <c r="DQ23">
+        <v>3243695.082980954</v>
+      </c>
     </row>
-    <row r="24" spans="1:111">
+    <row r="24" spans="1:121">
       <c r="A24" s="1">
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C24" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E24" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="F24" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G24" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H24" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I24" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="J24">
         <v>744</v>
@@ -8845,34 +9565,64 @@
       <c r="DG24">
         <v>6027.304821355358</v>
       </c>
+      <c r="DH24">
+        <v>0</v>
+      </c>
+      <c r="DI24">
+        <v>4558098.285031507</v>
+      </c>
+      <c r="DJ24">
+        <v>0</v>
+      </c>
+      <c r="DK24">
+        <v>98438129.0146319</v>
+      </c>
+      <c r="DL24">
+        <v>235587004.8285087</v>
+      </c>
+      <c r="DM24">
+        <v>1509585048.628991</v>
+      </c>
+      <c r="DN24">
+        <v>31562418.58034332</v>
+      </c>
+      <c r="DO24">
+        <v>3022094.936882676</v>
+      </c>
+      <c r="DP24">
+        <v>0</v>
+      </c>
+      <c r="DQ24">
+        <v>16486218.75619495</v>
+      </c>
     </row>
-    <row r="25" spans="1:111">
+    <row r="25" spans="1:121">
       <c r="A25" s="1">
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D25" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E25" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" t="s">
         <v>147</v>
       </c>
-      <c r="F25" t="s">
-        <v>137</v>
-      </c>
       <c r="G25" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H25" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I25" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="J25">
         <v>720</v>
@@ -9180,34 +9930,64 @@
       <c r="DG25">
         <v>51384.39716555583</v>
       </c>
+      <c r="DH25">
+        <v>0</v>
+      </c>
+      <c r="DI25">
+        <v>297620270.6445888</v>
+      </c>
+      <c r="DJ25">
+        <v>0</v>
+      </c>
+      <c r="DK25">
+        <v>764651478.2746174</v>
+      </c>
+      <c r="DL25">
+        <v>0</v>
+      </c>
+      <c r="DM25">
+        <v>12118448050.63903</v>
+      </c>
+      <c r="DN25">
+        <v>0</v>
+      </c>
+      <c r="DO25">
+        <v>171623413.0106647</v>
+      </c>
+      <c r="DP25">
+        <v>0</v>
+      </c>
+      <c r="DQ25">
+        <v>156617937.9300629</v>
+      </c>
     </row>
-    <row r="26" spans="1:111">
+    <row r="26" spans="1:121">
       <c r="A26" s="1">
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C26" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D26" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E26" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="F26" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="G26" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="H26" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="I26" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="J26">
         <v>743</v>
@@ -9514,6 +10294,36 @@
       </c>
       <c r="DG26">
         <v>98999.18524291136</v>
+      </c>
+      <c r="DH26">
+        <v>0</v>
+      </c>
+      <c r="DI26">
+        <v>955096634.6768059</v>
+      </c>
+      <c r="DJ26">
+        <v>0</v>
+      </c>
+      <c r="DK26">
+        <v>1679814532.993444</v>
+      </c>
+      <c r="DL26">
+        <v>0</v>
+      </c>
+      <c r="DM26">
+        <v>30927808308.08321</v>
+      </c>
+      <c r="DN26">
+        <v>0</v>
+      </c>
+      <c r="DO26">
+        <v>508154699.9685018</v>
+      </c>
+      <c r="DP26">
+        <v>0</v>
+      </c>
+      <c r="DQ26">
+        <v>338344210.7530562</v>
       </c>
     </row>
   </sheetData>
